--- a/biology/Zoologie/Fadet_oranais/Fadet_oranais.xlsx
+++ b/biology/Zoologie/Fadet_oranais/Fadet_oranais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha austauti
 Le Fadet oranais (Coenonympha austauti) est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Coenonympha.
@@ -512,13 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha austauti a été nommé par Charles Oberthür en 1881.
-Synonyme : Coenonympha dorus var. austauti Oberthür, 1881[1].
-Il est soit considéré comme une sous-espèce de Coenonympha dorus (Esper, 1782) le Fadet des garrigues, soit comme une semi-espèce soit comme une espèce[1],[2].
-Noms vernaculaires
-Le Fadet oranais se nomme Austaut's Algerian Heath en anglais[1].
+Synonyme : Coenonympha dorus var. austauti Oberthür, 1881.
+Il est soit considéré comme une sous-espèce de Coenonympha dorus (Esper, 1782) le Fadet des garrigues, soit comme une semi-espèce soit comme une espèce,.
 </t>
         </is>
       </c>
@@ -544,10 +556,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet oranais se nomme Austaut's Algerian Heath en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fadet oaranais est un petit papillon au dessus de couleur orangée très suffusé de marron chez le mâle, moins chez la femelle avec un gros ocelle aveugle à l'apex des antérieures et aux postérieures une ligne d'ocelles en courbe convexe.
 Le revers est orangé avec à l'apex des antérieures un gros ocelle pupillé et cerclé de jaune et aux postérieures dans une bande blanche irrégulière une ligne d'ocelles avec ceux en e4 et e5 décalés.
@@ -555,40 +606,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fadet_oranais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_oranais</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une seule génération, de début juin à début août[2].
-Plantes hôtes
-Ses plantes hôtes sont diverses poacées (graminées).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -610,15 +627,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une seule génération, de début juin à début août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses poacées (graminées).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent en Afrique du Nord dans le nord-est du Maroc et l'ouest de l'Algérie[1],[2].
-Biotope
-Il réside dans les lieux pierreux.
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Afrique du Nord dans le nord-est du Maroc et l'ouest de l'Algérie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_oranais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux pierreux.
+</t>
         </is>
       </c>
     </row>
